--- a/biology/Zoologie/Baleine_à_bec_de_Blainville/Baleine_à_bec_de_Blainville.xlsx
+++ b/biology/Zoologie/Baleine_à_bec_de_Blainville/Baleine_à_bec_de_Blainville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Blainville</t>
+          <t>Baleine_à_bec_de_Blainville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La baleine à bec de Blainville (Mesoplodon densirostris) est la plus grande des baleines mésoplodontes et probablement la mieux documentée. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Blainville</t>
+          <t>Baleine_à_bec_de_Blainville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description physique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Mésoplodon de Blainville est une baleine à bec plus petite (4-6 m[1]) que la Baleine à bec de Cuvier et au bec plus long, déformé par les défenses chez les deux sexes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mésoplodon de Blainville est une baleine à bec plus petite (4-6 m) que la Baleine à bec de Cuvier et au bec plus long, déformé par les défenses chez les deux sexes.
 			En surface
 			Mâle aux défense proéminentes
 			Femelle
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Blainville</t>
+          <t>Baleine_à_bec_de_Blainville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,11 +561,13 @@
           <t>Population et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette baleine à bec semble fréquenter toutes les mers tropicales et tempérées du monde, et des spécimens échoués ont été retrouvés de l'Islande à la Nouvelle-Zélande.
 Les observations les plus fréquentes ont lieu autour d'Hawaii et aux Bahamas.
-Cette espèce est signalée en Méditerranée mais à la présence très rare voire incertaine[3].
+Cette espèce est signalée en Méditerranée mais à la présence très rare voire incertaine.
 </t>
         </is>
       </c>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Blainville</t>
+          <t>Baleine_à_bec_de_Blainville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces baleines sont vues en groupes de 3 à 7 individus. Les plongées ont été mesurées jusqu'à au moins 22 minutes. Lorsque le cétacé fait surface, il le fait lentement et avec peu d'éclaboussures. Il se nourrit probablement de calmars et de poissons.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Blainville</t>
+          <t>Baleine_à_bec_de_Blainville</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a parfois été chassée ou pêchée, mais jamais exploitée de manière industrielle, faute de sous-produit valorisable. Elle demeure victime de la pollution et de prises accessoires dans les filets de pêche, et désorientée par la pollution sonore sous-marine.
 Au large des Bahamas du nord-est, ces animaux sont particulièrement bien documentés, et un projet d'identification photographique a démarré peu de temps après 2002.
